--- a/data/trans_orig/Q64A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Edad-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,14; 26,08</t>
+          <t>19,14; 26,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,5; 25,83</t>
+          <t>16,58; 25,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,15; 26,49</t>
+          <t>16,52; 27,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,32; 20,3</t>
+          <t>13,12; 20,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 19,13</t>
+          <t>13,84; 19,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,0; 25,67</t>
+          <t>16,79; 25,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,35; 26,78</t>
+          <t>16,25; 26,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,36; 22,79</t>
+          <t>13,24; 22,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,42; 22,0</t>
+          <t>17,57; 22,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,65; 24,06</t>
+          <t>17,6; 23,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,06; 24,42</t>
+          <t>17,43; 24,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 19,58</t>
+          <t>13,95; 19,64</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,85; 45,63</t>
+          <t>39,1; 45,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,26; 59,38</t>
+          <t>50,08; 59,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,18; 49,21</t>
+          <t>40,65; 49,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,89; 55,39</t>
+          <t>43,72; 55,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,4; 44,48</t>
+          <t>34,87; 43,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,48; 54,41</t>
+          <t>44,82; 54,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,58; 53,07</t>
+          <t>42,5; 52,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,89; 46,94</t>
+          <t>38,78; 46,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,35; 43,4</t>
+          <t>38,49; 43,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,32; 55,73</t>
+          <t>49,12; 55,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42,74; 49,39</t>
+          <t>42,74; 49,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>41,99; 49,95</t>
+          <t>42,54; 50,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,05; 110,93</t>
+          <t>97,56; 111,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>99,27; 114,64</t>
+          <t>99,67; 114,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,89; 108,01</t>
+          <t>93,97; 107,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>99,11; 112,81</t>
+          <t>99,07; 112,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>78,24; 95,14</t>
+          <t>76,6; 94,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,29; 94,72</t>
+          <t>76,5; 94,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,72; 94,83</t>
+          <t>78,97; 94,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,62; 105,45</t>
+          <t>92,01; 105,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>92,78; 103,43</t>
+          <t>92,33; 103,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,23; 104,55</t>
+          <t>92,25; 103,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,21; 100,59</t>
+          <t>89,6; 99,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>97,77; 107,16</t>
+          <t>97,48; 107,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>164,48; 187,06</t>
+          <t>164,08; 186,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>161,89; 187,92</t>
+          <t>161,22; 186,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>153,2; 179,83</t>
+          <t>152,56; 178,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,71; 188,08</t>
+          <t>45,12; 188,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>101,31; 138,17</t>
+          <t>101,37; 137,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>117,84; 150,54</t>
+          <t>118,24; 150,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>121,44; 153,16</t>
+          <t>121,31; 150,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>134,18; 150,85</t>
+          <t>133,29; 151,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>149,61; 170,43</t>
+          <t>149,34; 169,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>148,02; 167,55</t>
+          <t>148,27; 168,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>144,51; 164,45</t>
+          <t>143,81; 163,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>62,69; 166,91</t>
+          <t>54,6; 167,69</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>205,3; 249,18</t>
+          <t>204,0; 248,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>263,3; 313,83</t>
+          <t>267,15; 315,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>223,21; 268,49</t>
+          <t>222,92; 268,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>256,82; 289,06</t>
+          <t>258,53; 289,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>152,38; 228,13</t>
+          <t>156,5; 226,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>128,84; 193,62</t>
+          <t>129,97; 192,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>150,88; 205,97</t>
+          <t>148,87; 203,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>210,91; 241,16</t>
+          <t>211,21; 242,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>199,28; 234,99</t>
+          <t>200,0; 235,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>229,59; 271,28</t>
+          <t>230,18; 271,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>200,51; 236,5</t>
+          <t>197,93; 235,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>243,34; 267,16</t>
+          <t>243,32; 265,75</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100,87; 344,47</t>
+          <t>68,32; 333,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>256,12; 376,96</t>
+          <t>253,48; 375,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>114,18; 293,03</t>
+          <t>114,18; 291,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>209,57; 320,94</t>
+          <t>213,39; 322,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82,38; 356,75</t>
+          <t>83,16; 377,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>203,26; 442,35</t>
+          <t>199,16; 440,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>138,82; 293,87</t>
+          <t>136,79; 296,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>252,09; 338,94</t>
+          <t>250,79; 334,57</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>100,94; 110,44</t>
+          <t>100,34; 109,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>119,12; 132,65</t>
+          <t>120,03; 132,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>111,33; 123,59</t>
+          <t>110,99; 123,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>79,96; 145,86</t>
+          <t>76,02; 145,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>67,54; 78,61</t>
+          <t>67,85; 78,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>80,14; 92,21</t>
+          <t>80,29; 92,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>85,77; 97,87</t>
+          <t>85,53; 97,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>101,83; 119,87</t>
+          <t>98,68; 119,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>90,49; 98,06</t>
+          <t>90,5; 98,07</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>105,17; 114,86</t>
+          <t>105,29; 114,85</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>101,7; 110,55</t>
+          <t>102,3; 111,09</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>91,88; 132,0</t>
+          <t>85,53; 131,89</t>
         </is>
       </c>
     </row>
